--- a/team_specific_matrix/Notre Dame_A.xlsx
+++ b/team_specific_matrix/Notre Dame_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1851851851851852</v>
+        <v>0.1863636363636364</v>
       </c>
       <c r="C2">
-        <v>0.5396825396825397</v>
+        <v>0.5363636363636364</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1164021164021164</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.126984126984127</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.03174603174603174</v>
+        <v>0.02727272727272727</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02912621359223301</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C3">
-        <v>0.02912621359223301</v>
+        <v>0.025</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0970873786407767</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7669902912621359</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.07766990291262135</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6153846153846154</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.07692307692307693</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04191616766467066</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005988023952095809</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05389221556886228</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3652694610778443</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02994011976047904</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1676646706586826</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R6">
-        <v>0.07784431137724551</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="S6">
-        <v>0.2574850299401197</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008333333333333333</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3083333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03333333333333333</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.125</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="R7">
-        <v>0.05</v>
+        <v>0.06293706293706294</v>
       </c>
       <c r="S7">
-        <v>0.2666666666666667</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09422492401215805</v>
+        <v>0.09669211195928754</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01519756838905775</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07598784194528875</v>
+        <v>0.07633587786259542</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.303951367781155</v>
+        <v>0.3129770992366412</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00911854103343465</v>
+        <v>0.01272264631043257</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1306990881458966</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="R8">
-        <v>0.0851063829787234</v>
+        <v>0.07633587786259542</v>
       </c>
       <c r="S8">
-        <v>0.2857142857142857</v>
+        <v>0.2569974554707379</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05298013245033113</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006622516556291391</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07947019867549669</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2384105960264901</v>
+        <v>0.2598870056497175</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03311258278145696</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1854304635761589</v>
+        <v>0.1977401129943503</v>
       </c>
       <c r="R9">
-        <v>0.08609271523178808</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="S9">
-        <v>0.3178807947019868</v>
+        <v>0.2937853107344633</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06614173228346457</v>
+        <v>0.06389986824769434</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01496062992125984</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E10">
-        <v>0.0007874015748031496</v>
+        <v>0.0006587615283267457</v>
       </c>
       <c r="F10">
-        <v>0.05826771653543307</v>
+        <v>0.05731225296442688</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4110236220472441</v>
+        <v>0.4229249011857708</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03622047244094488</v>
+        <v>0.03820816864295125</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.131496062992126</v>
+        <v>0.1343873517786561</v>
       </c>
       <c r="R10">
-        <v>0.07952755905511812</v>
+        <v>0.077733860342556</v>
       </c>
       <c r="S10">
-        <v>0.2015748031496063</v>
+        <v>0.1903820816864295</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.06711409395973154</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09395973154362416</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="K11">
-        <v>0.09395973154362416</v>
+        <v>0.1091954022988506</v>
       </c>
       <c r="L11">
-        <v>0.7449664429530202</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7927927927927928</v>
+        <v>0.78125</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1981981981981982</v>
+        <v>0.203125</v>
       </c>
       <c r="K12">
-        <v>0.009009009009009009</v>
+        <v>0.0078125</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0078125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3666666666666666</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03333333333333333</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01169590643274854</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1228070175438596</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="I15">
-        <v>0.1111111111111111</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="J15">
-        <v>0.456140350877193</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="K15">
-        <v>0.02923976608187134</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005847953216374269</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05263157894736842</v>
+        <v>0.04433497536945813</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2105263157894737</v>
+        <v>0.2167487684729064</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1512605042016807</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="I16">
-        <v>0.08403361344537816</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.5294117647058824</v>
+        <v>0.5314685314685315</v>
       </c>
       <c r="K16">
-        <v>0.07563025210084033</v>
+        <v>0.08391608391608392</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04201680672268908</v>
+        <v>0.04895104895104895</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08403361344537816</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.03361344537815126</v>
+        <v>0.02797202797202797</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01811594202898551</v>
+        <v>0.01479289940828402</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1811594202898551</v>
+        <v>0.1804733727810651</v>
       </c>
       <c r="I17">
-        <v>0.1159420289855072</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="J17">
-        <v>0.4927536231884058</v>
+        <v>0.4911242603550296</v>
       </c>
       <c r="K17">
-        <v>0.05797101449275362</v>
+        <v>0.05621301775147929</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02173913043478261</v>
+        <v>0.02662721893491124</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07246376811594203</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.03985507246376811</v>
+        <v>0.04142011834319527</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03703703703703703</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1604938271604938</v>
+        <v>0.1657754010695187</v>
       </c>
       <c r="I18">
-        <v>0.1049382716049383</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="J18">
-        <v>0.5308641975308642</v>
+        <v>0.5240641711229946</v>
       </c>
       <c r="K18">
-        <v>0.04938271604938271</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006172839506172839</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04320987654320987</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06790123456790123</v>
+        <v>0.06951871657754011</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0101867572156197</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2359932088285229</v>
+        <v>0.2318181818181818</v>
       </c>
       <c r="I19">
-        <v>0.08488964346349745</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="J19">
-        <v>0.402376910016978</v>
+        <v>0.4151515151515152</v>
       </c>
       <c r="K19">
-        <v>0.1103565365025467</v>
+        <v>0.1106060606060606</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01697792869269949</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.001515151515151515</v>
       </c>
       <c r="O19">
-        <v>0.06621392190152801</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0730050933786078</v>
+        <v>0.0696969696969697</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Notre Dame_A.xlsx
+++ b/team_specific_matrix/Notre Dame_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1863636363636364</v>
+        <v>0.1848739495798319</v>
       </c>
       <c r="C2">
-        <v>0.5363636363636364</v>
+        <v>0.542016806722689</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1090909090909091</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1409090909090909</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.02727272727272727</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03333333333333333</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C3">
-        <v>0.025</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1083333333333333</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7583333333333333</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.075</v>
+        <v>0.06923076923076923</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6571428571428571</v>
+        <v>0.675</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.05714285714285714</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04210526315789474</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01052631578947368</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05263157894736842</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3578947368421053</v>
+        <v>0.3497536945812808</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04210526315789474</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1578947368421053</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="R6">
-        <v>0.07368421052631578</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="S6">
-        <v>0.2631578947368421</v>
+        <v>0.2610837438423645</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1118881118881119</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01398601398601399</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07692307692307693</v>
+        <v>0.07643312101910828</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3076923076923077</v>
+        <v>0.3057324840764331</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03496503496503497</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1188811188811189</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="R7">
-        <v>0.06293706293706294</v>
+        <v>0.06369426751592357</v>
       </c>
       <c r="S7">
-        <v>0.2727272727272727</v>
+        <v>0.267515923566879</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09669211195928754</v>
+        <v>0.09534883720930233</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02290076335877863</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07633587786259542</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3129770992366412</v>
+        <v>0.3069767441860465</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01272264631043257</v>
+        <v>0.01627906976744186</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1450381679389313</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="R8">
-        <v>0.07633587786259542</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="S8">
-        <v>0.2569974554707379</v>
+        <v>0.2465116279069768</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05084745762711865</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005649717514124294</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07909604519774012</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2598870056497175</v>
+        <v>0.2408376963350785</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02824858757062147</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1977401129943503</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="R9">
-        <v>0.0847457627118644</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="S9">
-        <v>0.2937853107344633</v>
+        <v>0.3036649214659686</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06389986824769434</v>
+        <v>0.06342364532019705</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01449275362318841</v>
+        <v>0.01354679802955665</v>
       </c>
       <c r="E10">
-        <v>0.0006587615283267457</v>
+        <v>0.0006157635467980296</v>
       </c>
       <c r="F10">
-        <v>0.05731225296442688</v>
+        <v>0.05726600985221675</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4229249011857708</v>
+        <v>0.4248768472906404</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03820816864295125</v>
+        <v>0.03817733990147783</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1343873517786561</v>
+        <v>0.1354679802955665</v>
       </c>
       <c r="R10">
-        <v>0.077733860342556</v>
+        <v>0.07820197044334976</v>
       </c>
       <c r="S10">
-        <v>0.1903820816864295</v>
+        <v>0.188423645320197</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.08045977011494253</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08620689655172414</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="K11">
-        <v>0.1091954022988506</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="L11">
-        <v>0.7241379310344828</v>
+        <v>0.7112299465240641</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.78125</v>
+        <v>0.7925925925925926</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.203125</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="K12">
-        <v>0.0078125</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L12">
-        <v>0.0078125</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5675675675675675</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4054054054054054</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01477832512315271</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1330049261083744</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="I15">
-        <v>0.09359605911330049</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="J15">
-        <v>0.458128078817734</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="K15">
-        <v>0.03448275862068965</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004926108374384237</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04433497536945813</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2167487684729064</v>
+        <v>0.2175925925925926</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1468531468531468</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="J16">
-        <v>0.5314685314685315</v>
+        <v>0.5220125786163522</v>
       </c>
       <c r="K16">
-        <v>0.08391608391608392</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04895104895104895</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06993006993006994</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.02797202797202797</v>
+        <v>0.03144654088050314</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01479289940828402</v>
+        <v>0.01358695652173913</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1804733727810651</v>
+        <v>0.1766304347826087</v>
       </c>
       <c r="I17">
-        <v>0.1183431952662722</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="J17">
-        <v>0.4911242603550296</v>
+        <v>0.4918478260869565</v>
       </c>
       <c r="K17">
-        <v>0.05621301775147929</v>
+        <v>0.0625</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02662721893491124</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07100591715976332</v>
+        <v>0.06793478260869565</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.04142011834319527</v>
+        <v>0.04076086956521739</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03208556149732621</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1657754010695187</v>
+        <v>0.1853658536585366</v>
       </c>
       <c r="I18">
-        <v>0.106951871657754</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J18">
-        <v>0.5240641711229946</v>
+        <v>0.5073170731707317</v>
       </c>
       <c r="K18">
-        <v>0.05882352941176471</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0053475935828877</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0374331550802139</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06951871657754011</v>
+        <v>0.07804878048780488</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00909090909090909</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2318181818181818</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="I19">
-        <v>0.08181818181818182</v>
+        <v>0.08192090395480225</v>
       </c>
       <c r="J19">
-        <v>0.4151515151515152</v>
+        <v>0.4081920903954802</v>
       </c>
       <c r="K19">
-        <v>0.1106060606060606</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01666666666666667</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="N19">
-        <v>0.001515151515151515</v>
+        <v>0.001412429378531073</v>
       </c>
       <c r="O19">
-        <v>0.06363636363636363</v>
+        <v>0.06073446327683616</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0696969696969697</v>
+        <v>0.07062146892655367</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Notre Dame_A.xlsx
+++ b/team_specific_matrix/Notre Dame_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1848739495798319</v>
+        <v>0.1867704280155642</v>
       </c>
       <c r="C2">
-        <v>0.542016806722689</v>
+        <v>0.5447470817120622</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1008403361344538</v>
+        <v>0.0933852140077821</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.1439688715953307</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.02941176470588235</v>
+        <v>0.0311284046692607</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03076923076923077</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="C3">
-        <v>0.02307692307692308</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1076923076923077</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7692307692307693</v>
+        <v>0.7588652482269503</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.06923076923076923</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03940886699507389</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01970443349753695</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04926108374384237</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3497536945812808</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04926108374384237</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1576354679802956</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="R6">
-        <v>0.07389162561576355</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="S6">
-        <v>0.2610837438423645</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1082802547770701</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01910828025477707</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07643312101910828</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3057324840764331</v>
+        <v>0.2994011976047904</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03184713375796178</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1273885350318471</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="R7">
-        <v>0.06369426751592357</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="S7">
-        <v>0.267515923566879</v>
+        <v>0.2634730538922156</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09534883720930233</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02325581395348837</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07906976744186046</v>
+        <v>0.07956989247311828</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3069767441860465</v>
+        <v>0.3096774193548387</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01627906976744186</v>
+        <v>0.01720430107526882</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1511627906976744</v>
+        <v>0.1483870967741935</v>
       </c>
       <c r="R8">
-        <v>0.08139534883720931</v>
+        <v>0.08817204301075268</v>
       </c>
       <c r="S8">
-        <v>0.2465116279069768</v>
+        <v>0.2451612903225806</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06806282722513089</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01047120418848168</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07329842931937172</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2408376963350785</v>
+        <v>0.2524271844660194</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02617801047120419</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1884816753926702</v>
+        <v>0.1796116504854369</v>
       </c>
       <c r="R9">
-        <v>0.08900523560209424</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="S9">
-        <v>0.3036649214659686</v>
+        <v>0.2961165048543689</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06342364532019705</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01354679802955665</v>
+        <v>0.01271676300578035</v>
       </c>
       <c r="E10">
-        <v>0.0006157635467980296</v>
+        <v>0.0005780346820809249</v>
       </c>
       <c r="F10">
-        <v>0.05726600985221675</v>
+        <v>0.05953757225433526</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4248768472906404</v>
+        <v>0.4225433526011561</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03817733990147783</v>
+        <v>0.03815028901734104</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1354679802955665</v>
+        <v>0.1364161849710983</v>
       </c>
       <c r="R10">
-        <v>0.07820197044334976</v>
+        <v>0.07745664739884393</v>
       </c>
       <c r="S10">
-        <v>0.188423645320197</v>
+        <v>0.1890173410404624</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.08021390374331551</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09625668449197861</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K11">
-        <v>0.1122994652406417</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L11">
-        <v>0.7112299465240641</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7925925925925926</v>
+        <v>0.7724137931034483</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1925925925925926</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="K12">
-        <v>0.007407407407407408</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="L12">
-        <v>0.007407407407407408</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.01379310344827586</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6136363636363636</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3636363636363636</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01851851851851852</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1296296296296296</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="I15">
-        <v>0.09259259259259259</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="J15">
-        <v>0.462962962962963</v>
+        <v>0.4439655172413793</v>
       </c>
       <c r="K15">
-        <v>0.03240740740740741</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004629629629629629</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04166666666666666</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2175925925925926</v>
+        <v>0.228448275862069</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006289308176100629</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1509433962264151</v>
+        <v>0.1597633136094675</v>
       </c>
       <c r="I16">
-        <v>0.1006289308176101</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="J16">
-        <v>0.5220125786163522</v>
+        <v>0.5266272189349113</v>
       </c>
       <c r="K16">
-        <v>0.07547169811320754</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0440251572327044</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06918238993710692</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.03144654088050314</v>
+        <v>0.02958579881656805</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01358695652173913</v>
+        <v>0.01518987341772152</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1766304347826087</v>
+        <v>0.1746835443037975</v>
       </c>
       <c r="I17">
-        <v>0.1195652173913044</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="J17">
-        <v>0.4918478260869565</v>
+        <v>0.4987341772151899</v>
       </c>
       <c r="K17">
-        <v>0.0625</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02717391304347826</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06793478260869565</v>
+        <v>0.06835443037974684</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.04076086956521739</v>
+        <v>0.04050632911392405</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02926829268292683</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1853658536585366</v>
+        <v>0.1863636363636364</v>
       </c>
       <c r="I18">
-        <v>0.0975609756097561</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.5073170731707317</v>
+        <v>0.5045454545454545</v>
       </c>
       <c r="K18">
-        <v>0.05853658536585366</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00975609756097561</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03414634146341464</v>
+        <v>0.03181818181818181</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07804878048780488</v>
+        <v>0.07272727272727272</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008474576271186441</v>
+        <v>0.009067357512953367</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2372881355932203</v>
+        <v>0.2383419689119171</v>
       </c>
       <c r="I19">
-        <v>0.08192090395480225</v>
+        <v>0.08549222797927461</v>
       </c>
       <c r="J19">
-        <v>0.4081920903954802</v>
+        <v>0.3989637305699482</v>
       </c>
       <c r="K19">
-        <v>0.1101694915254237</v>
+        <v>0.1062176165803109</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0211864406779661</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="N19">
-        <v>0.001412429378531073</v>
+        <v>0.002590673575129534</v>
       </c>
       <c r="O19">
-        <v>0.06073446327683616</v>
+        <v>0.06088082901554404</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07062146892655367</v>
+        <v>0.07772020725388601</v>
       </c>
     </row>
   </sheetData>
